--- a/Schede CRC.xlsx
+++ b/Schede CRC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <r>
       <rPr>
@@ -107,6 +107,12 @@
       </rPr>
       <t xml:space="preserve"> Libro</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Registrati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SistemaBibliotecario</t>
   </si>
 </sst>
 </file>
@@ -116,7 +122,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -159,11 +165,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -229,36 +230,40 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -279,16 +284,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+      <selection pane="topLeft" activeCell="K23" activeCellId="0" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.35"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="3" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -297,109 +302,132 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="0"/>
-      <c r="H5" s="0"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0"/>
-      <c r="B6" s="0"/>
-      <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0"/>
-      <c r="B10" s="0"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="0"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Schede CRC.xlsx
+++ b/Schede CRC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <r>
       <rPr>
@@ -60,7 +60,7 @@
     <t xml:space="preserve">Cerca Libro</t>
   </si>
   <si>
-    <t xml:space="preserve">Libro</t>
+    <t xml:space="preserve">Biblioteca, Libro</t>
   </si>
   <si>
     <r>
@@ -109,10 +109,112 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Class:</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Dipendente</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Registrati</t>
   </si>
   <si>
     <t xml:space="preserve">SistemaBibliotecario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggiungi Libro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elimina Libro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuovo Prestito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prestito, Utente, Biblioteca, Libro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rinnova Prestito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sollecita Restituzione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiedi Pagamento Multa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Class:</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Utente</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiedi Prestito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prestito, Dipendente, Biblioteca, Libro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restituisci Libro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paga Multa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Class:</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Prestito</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -175,7 +277,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -197,13 +299,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -230,7 +325,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -255,16 +350,24 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -284,10 +387,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K23" activeCellId="0" sqref="K23"/>
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -325,19 +428,17 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
-      <c r="B5" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="B5" s="6"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
@@ -364,70 +465,184 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2"/>
+      <c r="A11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2"/>
-    </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0"/>
+      <c r="B23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="5" t="s">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="B26" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="11">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A32:B32"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Schede CRC.xlsx
+++ b/Schede CRC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <r>
       <rPr>
@@ -106,6 +106,29 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Libro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Class:</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Utente</t>
     </r>
   </si>
   <si>
@@ -287,7 +310,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K23" activeCellId="0" sqref="K23"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -401,7 +424,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2"/>
     </row>
@@ -415,10 +438,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Schede CRC.xlsx
+++ b/Schede CRC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <r>
       <rPr>
@@ -128,7 +128,97 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> Dipendente</t>
+      <t xml:space="preserve"> &lt;&lt;abstract&gt;&gt; Lavoratore</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Class:</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Segretario</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuovo Prestito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prestito, Utente, Biblioteca, Libro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rinnova Prestito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sollecita Restituzione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiedi Pagamento Multa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Class:</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;&lt;abstract&gt;&gt; Dipendente</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggiungi Libro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elimina Libro</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Class:</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Utente</t>
     </r>
   </si>
   <si>
@@ -136,50 +226,6 @@
   </si>
   <si>
     <t xml:space="preserve">SistemaBibliotecario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aggiungi Libro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elimina Libro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuovo Prestito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prestito, Utente, Biblioteca, Libro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rinnova Prestito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sollecita Restituzione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiedi Pagamento Multa</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Class:</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Utente</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Chiedi Prestito</t>
@@ -325,7 +371,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -358,16 +404,12 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -387,10 +429,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -489,8 +531,8 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
@@ -507,142 +549,180 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="9"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="9"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0"/>
+      <c r="B22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="10"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
-      <c r="B23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0"/>
+      <c r="B28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
+      <c r="B32" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="6"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="6"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0"/>
+      <c r="B39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0"/>
+      <c r="B40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0"/>
+      <c r="B41" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A37:B37"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Schede CRC.xlsx
+++ b/Schede CRC.xlsx
@@ -189,7 +189,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> &lt;&lt;abstract&gt;&gt; Dipendente</t>
+      <t xml:space="preserve"> Dipendente</t>
     </r>
   </si>
   <si>
@@ -432,7 +432,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -549,8 +549,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
@@ -593,8 +593,8 @@
       <c r="B21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
@@ -631,8 +631,8 @@
       <c r="B27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="0"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
@@ -697,16 +697,16 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0"/>
-      <c r="B39" s="0"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0"/>
-      <c r="B40" s="0"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0"/>
-      <c r="B41" s="0"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/Schede CRC.xlsx
+++ b/Schede CRC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <r>
       <rPr>
@@ -260,6 +260,29 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Prestito</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Class:</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Prenotazione</t>
     </r>
   </si>
 </sst>
@@ -432,7 +455,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -701,15 +724,21 @@
       <c r="B39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
+      <c r="A40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
+      <c r="A41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -723,6 +752,7 @@
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A40:B40"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
